--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cpr223\PycharmProjects\ApiTestLearn\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yujie\PycharmProjects\ApiTestLearn\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>API Purpose</t>
   </si>
@@ -107,13 +108,39 @@
   <si>
     <t>获取IP地址信息1</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://ip.taobao.com/service/getIpInfo.php</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Point</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,8 +309,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +497,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -708,7 +756,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -716,6 +764,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,7 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
@@ -1179,4 +1233,77 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCase/TestCase.xlsx
+++ b/TestCase/TestCase.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>API Purpose</t>
   </si>
@@ -126,14 +126,59 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Request Data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Check Point</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>{"ip":"61.183.144.26"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ip":"61.183.144.2611"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"code":0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ip":""}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ip":"  "}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>{"ip":"aaaa"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ip":"啊啊啊"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ip":"！@#￥%……&amp;*（"}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -1237,10 +1282,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1270,10 +1315,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -1281,25 +1326,76 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
